--- a/resources/AirbnbDataSet.xlsx
+++ b/resources/AirbnbDataSet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ReactJS Framework\ReactJS\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Framework\SelDataDrivenFramework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -119,8 +119,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C18049AE-75FD-425D-B199-F70F0C17E10B}">
-  <header guid="{C18049AE-75FD-425D-B199-F70F0C17E10B}" dateTime="2020-11-19T10:25:43" maxSheetId="2" userName="Windows User" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{93089D46-FBB0-40FE-9AAB-18A05E1E1794}" diskRevisions="1" revisionId="4" version="2">
+  <header guid="{93089D46-FBB0-40FE-9AAB-18A05E1E1794}" dateTime="2021-03-01T10:08:46" maxSheetId="2" userName="Windows User" r:id="rId2" minRId="1" maxRId="4">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -128,8 +128,43 @@
 </headers>
 </file>
 
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1" numFmtId="19">
+    <oc r="B3">
+      <v>44190</v>
+    </oc>
+    <nc r="B3">
+      <v>44265</v>
+    </nc>
+  </rcc>
+  <rcc rId="2" sId="1" numFmtId="19">
+    <oc r="B4">
+      <v>44198</v>
+    </oc>
+    <nc r="B4">
+      <v>44270</v>
+    </nc>
+  </rcc>
+  <rcc rId="3" sId="1" numFmtId="19">
+    <oc r="C3">
+      <v>44193</v>
+    </oc>
+    <nc r="C3">
+      <v>44267</v>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="1" numFmtId="19">
+    <oc r="C4">
+      <v>44201</v>
+    </oc>
+    <nc r="C4">
+      <v>44275</v>
+    </nc>
+  </rcc>
+  <rcv guid="{BF33DCED-3F1D-47D1-9B86-5149164962DC}" action="delete"/>
+  <rcv guid="{BF33DCED-3F1D-47D1-9B86-5149164962DC}" action="add"/>
+</revisions>
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,7 +437,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,10 +475,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>44190</v>
+        <v>44265</v>
       </c>
       <c r="C3" s="1">
-        <v>44193</v>
+        <v>44267</v>
       </c>
       <c r="D3" s="1">
         <v>44195</v>
@@ -454,10 +489,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>44198</v>
+        <v>44270</v>
       </c>
       <c r="C4" s="1">
-        <v>44201</v>
+        <v>44275</v>
       </c>
       <c r="D4" s="1">
         <v>44204</v>
@@ -498,7 +533,7 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{BF33DCED-3F1D-47D1-9B86-5149164962DC}">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
